--- a/biology/Histoire de la zoologie et de la botanique/Georg_Dionysius_Ehret/Georg_Dionysius_Ehret.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georg_Dionysius_Ehret/Georg_Dionysius_Ehret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Dionysius Ehret est un artiste, un botaniste et un entomologiste allemand, célèbre pour ses illustrations de botanique, né en 1708 à Heidelberg et mort en 1770 en Grande-Bretagne.
 Il commence comme apprenti-jardinier près de Heidelberg. Ses premières illustrations sont faites pour le compte de Carl von Linné (1707-1778) et de George Clifford (1685-1760) en 1735-1736. Ce dernier est un riche banquier qui dirige la Compagnie néerlandaise des Indes orientales et possède un très important herbier. Il s’entoure de botanistes comme Linné, et d’artistes comme Ehret dans sa propriété de Hartekamp et fait paraître le Hortus Cliffortianus, un chef-d’œuvre de la littérature botanique.
@@ -513,7 +525,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Methodus plantarum sexualis (1736)
 Hortus nitidissimis (en 3 volumes, 1750-1786)
